--- a/Diffusion_SVD_guide.xlsx
+++ b/Diffusion_SVD_guide.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29400" windowHeight="12540"/>
+    <workbookView windowWidth="28000" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>随机SVD</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>摘要</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>Finding structure with randomness: Probabilistic algorithms for constructing approximate matrix decompositions</t>
+  </si>
+  <si>
+    <t>N. Halko, P. G. Martinsson, J. A. Tropp</t>
+  </si>
+  <si>
+    <t>Low-rank matrix approximations, such as the truncated singular value decomposition and the rank-revealing QR decomposition, play a central role in data analysis and scientific computing. This work surveys and extends recent research which demonstrates that randomization offers a powerful tool for performing low-rank matrix approximation. These techniques exploit modern computational architectures more fully than classical methods and open the possibility of dealing with truly massive data sets.
+This paper presents a modular framework for constructing randomized algorithms that compute partial matrix decompositions. These methods use random sampling to identify a subspace that captures most of the action of a matrix. The input matrix is then compressed---either explicitly or implicitly---to this subspace, and the reduced matrix is manipulated deterministically to obtain the desired low-rank factorization. In many cases, this approach beats its classical competitors in terms of accuracy, speed, and robustness. These claims are supported by extensive numerical experiments and a detailed error analysis.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/0909.4061</t>
+  </si>
+  <si>
+    <t>随机SVD分解经典</t>
+  </si>
+  <si>
+    <t>Randomized algorithms for matrices and data</t>
+  </si>
+  <si>
+    <t>Michael W. Mahoney</t>
+  </si>
+  <si>
+    <t>Randomized algorithms for very large matrix problems have received a great deal of attention in recent years. Much of this work was motivated by problems in large-scale data analysis, and this work was performed by individuals from many different research communities. This monograph will provide a detailed overview of recent work on the theory of randomized matrix algorithms as well as the application of those ideas to the solution of practical problems in large-scale data analysis. An emphasis will be placed on a few simple core ideas that underlie not only recent theoretical advances but also the usefulness of these tools in large-scale data applications. Crucial in this context is the connection with the concept of statistical leverage. This concept has long been used in statistical regression diagnostics to identify outliers; and it has recently proved crucial in the development of improved worst-case matrix algorithms that are also amenable to high-quality numerical implementation and that are useful to domain scientists. Randomized methods solve problems such as the linear least-squares problem and the low-rank matrix approximation problem by constructing and operating on a randomized sketch of the input matrix. Depending on the specifics of the situation, when compared with the best previously-existing deterministic algorithms, the resulting randomized algorithms have worst-case running time that is asymptotically faster; their numerical implementations are faster in terms of clock-time; or they can be implemented in parallel computing environments where existing numerical algorithms fail to run at all. Numerous examples illustrating these observations will be described in detail.</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1104.5557</t>
+  </si>
+  <si>
+    <t>随机算法综述包括随机SVD</t>
   </si>
 </sst>
 </file>
@@ -645,8 +691,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1174,20 +1226,86 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A4"/>
+  <dimension ref="A4:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="104.480769230769" customWidth="1"/>
+    <col min="2" max="3" width="14.2596153846154" customWidth="1"/>
+    <col min="4" max="4" width="57.8557692307692" customWidth="1"/>
+    <col min="5" max="5" width="53.6826923076923" customWidth="1"/>
+    <col min="6" max="6" width="22.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>0</v>
       </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" ht="336" spans="1:6">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2011</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" ht="204" customHeight="1" spans="1:6">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>2011</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E5" r:id="rId1" display="https://arxiv.org/abs/0909.4061"/>
+    <hyperlink ref="E6" r:id="rId2" display="https://arxiv.org/abs/1104.5557"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
